--- a/biology/Botanique/Walter_Bitterlich/Walter_Bitterlich.xlsx
+++ b/biology/Botanique/Walter_Bitterlich/Walter_Bitterlich.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Walter Bitterlich, né le 19 février 1908 et mort le 9 février 2008[1], est un forestier de renommée mondiale. Il est particulièrement connu pour avoir inventé le relascope, qui permet de mesurer la surface terrière d'une parcelle en forêt. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Walter Bitterlich, né le 19 février 1908 et mort le 9 février 2008, est un forestier de renommée mondiale. Il est particulièrement connu pour avoir inventé le relascope, qui permet de mesurer la surface terrière d'une parcelle en forêt. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Le relascope</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'outil est constitué d'une plaque carrée d'environ 5 cm de côté. L'un des côtés présente une encoche d'exactement 10 mm de largeur sur environ 15 mm de hauteur ; le côté opposé présente un trou où passe le dernier maillon d'une chaîne de 50 cm exactement dont le dernier maillon plus grand laisse le passage d'un doigt de l'opérateur.
 D'un doigt l'opérateur tient le gros maillon de la chaîne sous son œil, de l'autre main il tient la plaque verticalement devant lui, en tendant la chaîne horizontalement.
